--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/125.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/125.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3252333105445339</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.616151074431486</v>
+        <v>-1.596157264727007</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1482159467786227</v>
+        <v>0.04132910193437125</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0742282232381615</v>
+        <v>-0.01479762850201528</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3358104034441345</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.859593593507352</v>
+        <v>-1.59328148873614</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2442314894743322</v>
+        <v>-0.009958517852696191</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04217506191302081</v>
+        <v>0.009707764448368189</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3491052108779813</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.945940673635251</v>
+        <v>-1.635456893612592</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3368808799550692</v>
+        <v>-0.06827730320131525</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02789079566976584</v>
+        <v>0.009756558102508034</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3527284550536504</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.043644476764199</v>
+        <v>-1.717755320288238</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2433050199663519</v>
+        <v>-0.079113763865098</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01801488406567674</v>
+        <v>0.01855161426121503</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3383841584208009</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.915839258475704</v>
+        <v>-1.76860684679143</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3006509818355578</v>
+        <v>-0.03303852618151945</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02906855249656634</v>
+        <v>-0.02637880231210741</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2999772963059893</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.590356309170457</v>
+        <v>-1.695079689368098</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0766149188524612</v>
+        <v>0.1010476552361271</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006178763412703925</v>
+        <v>-0.0701601283304365</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2366465573966082</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.364961952840242</v>
+        <v>-1.43598416604417</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.06794184682910381</v>
+        <v>0.1855039812661074</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02079436859580219</v>
+        <v>-0.05373557442628805</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1515666618268496</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.013792804154427</v>
+        <v>-1.05648359200273</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04399384537108351</v>
+        <v>0.2103057956653905</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1774903095004992</v>
+        <v>-0.08468050988177751</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.04836559190466167</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6201737862876234</v>
+        <v>-0.4947704356241622</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1007811199003882</v>
+        <v>0.2416917037701688</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1316334234191965</v>
+        <v>-0.09941802319404085</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.06965038808196952</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2758863725975564</v>
+        <v>0.1979969864879379</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08498112476922975</v>
+        <v>0.1321273831611779</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04089422849184988</v>
+        <v>-0.05007361068309271</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2014971959568793</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4707962075770418</v>
+        <v>0.9907291876776912</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01765381102504189</v>
+        <v>-0.02082730431234658</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1714020052990156</v>
+        <v>0.02148350295434294</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3458484123739636</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8677673494832525</v>
+        <v>1.819509530625285</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1088887954564001</v>
+        <v>-0.2081559012860381</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2374198193502254</v>
+        <v>0.1428199025452481</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5022663445667024</v>
       </c>
       <c r="E14" t="n">
-        <v>1.334603075148923</v>
+        <v>2.589786282259205</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2609207489521894</v>
+        <v>-0.4700003371000701</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4907833081540756</v>
+        <v>0.2632371516762939</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6699381966194966</v>
       </c>
       <c r="E15" t="n">
-        <v>2.009078976165349</v>
+        <v>3.354357225962147</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6344666674265375</v>
+        <v>-0.7986243778905703</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5166323563553351</v>
+        <v>0.3994263395873678</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8459692583975508</v>
       </c>
       <c r="E16" t="n">
-        <v>2.844046354457875</v>
+        <v>4.034338271006901</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9718424600076955</v>
+        <v>-1.146637187074214</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6157316579926828</v>
+        <v>0.5408699941286261</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.025278378977771</v>
       </c>
       <c r="E17" t="n">
-        <v>3.198738404972587</v>
+        <v>4.61414106473714</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.137618290027141</v>
+        <v>-1.512433453429802</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6165959155916347</v>
+        <v>0.7364813138925563</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.200555104748973</v>
       </c>
       <c r="E18" t="n">
-        <v>3.845392164398474</v>
+        <v>5.091833378448926</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.358405915485877</v>
+        <v>-1.953190190799079</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6787279250112827</v>
+        <v>0.8912145300594781</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.365747849461573</v>
       </c>
       <c r="E19" t="n">
-        <v>4.08234146794968</v>
+        <v>5.468361809032572</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.71013253167024</v>
+        <v>-2.419043334254508</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9560381194256152</v>
+        <v>1.093339802651077</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.521781652992017</v>
       </c>
       <c r="E20" t="n">
-        <v>4.513695668166209</v>
+        <v>5.762144741084516</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.899980101038901</v>
+        <v>-2.790409396230159</v>
       </c>
       <c r="G20" t="n">
-        <v>1.131614154879048</v>
+        <v>1.260325105372514</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.66918416755353</v>
       </c>
       <c r="E21" t="n">
-        <v>4.930575230882154</v>
+        <v>5.972584452341545</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.16802011108734</v>
+        <v>-3.100737036559571</v>
       </c>
       <c r="G21" t="n">
-        <v>1.305884960084241</v>
+        <v>1.398656334700327</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.803496446915014</v>
       </c>
       <c r="E22" t="n">
-        <v>5.189435324824857</v>
+        <v>6.120005939435611</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.585806625849609</v>
+        <v>-3.435090672187442</v>
       </c>
       <c r="G22" t="n">
-        <v>1.226994160229586</v>
+        <v>1.586940677374483</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.919597527415913</v>
       </c>
       <c r="E23" t="n">
-        <v>5.369662005438494</v>
+        <v>6.174323035224086</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.75549936645513</v>
+        <v>-3.696553602618168</v>
       </c>
       <c r="G23" t="n">
-        <v>1.49022067629713</v>
+        <v>1.673151745191468</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.012742704500436</v>
       </c>
       <c r="E24" t="n">
-        <v>5.509248451519055</v>
+        <v>6.2088006312393</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.903030639271011</v>
+        <v>-3.869972043677605</v>
       </c>
       <c r="G24" t="n">
-        <v>1.632714614243748</v>
+        <v>1.76634396507451</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.082689289204125</v>
       </c>
       <c r="E25" t="n">
-        <v>5.746745463837981</v>
+        <v>6.202966130045528</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.094168190870994</v>
+        <v>-3.973607630348266</v>
       </c>
       <c r="G25" t="n">
-        <v>1.656978478606139</v>
+        <v>1.823957682120809</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.129306956389528</v>
       </c>
       <c r="E26" t="n">
-        <v>5.600829260974129</v>
+        <v>6.137216681092088</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.201643838122461</v>
+        <v>-4.008286805147145</v>
       </c>
       <c r="G26" t="n">
-        <v>1.748046344772069</v>
+        <v>1.864186830117757</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.154125213168381</v>
       </c>
       <c r="E27" t="n">
-        <v>5.647238125267889</v>
+        <v>5.984621846817845</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.180205126334767</v>
+        <v>-4.061622538566733</v>
       </c>
       <c r="G27" t="n">
-        <v>1.689440286784701</v>
+        <v>1.82539404531455</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.155816936251284</v>
       </c>
       <c r="E28" t="n">
-        <v>5.613660772171555</v>
+        <v>5.777941686612291</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.185459288004613</v>
+        <v>-4.0196801233888</v>
       </c>
       <c r="G28" t="n">
-        <v>1.706110638721579</v>
+        <v>1.775154879170813</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.132194688162365</v>
       </c>
       <c r="E29" t="n">
-        <v>5.487815838938128</v>
+        <v>5.484131918050569</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.251664042743246</v>
+        <v>-3.934513849691085</v>
       </c>
       <c r="G29" t="n">
-        <v>1.68805820653119</v>
+        <v>1.696203697169161</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.084561284204126</v>
       </c>
       <c r="E30" t="n">
-        <v>5.482574180642155</v>
+        <v>5.282089594671008</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.119129499527247</v>
+        <v>-3.843003486074175</v>
       </c>
       <c r="G30" t="n">
-        <v>1.616937186177629</v>
+        <v>1.61554717695532</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.015513524634156</v>
       </c>
       <c r="E31" t="n">
-        <v>5.324072874534284</v>
+        <v>5.003949908136298</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.128728736098246</v>
+        <v>-3.683182006661482</v>
       </c>
       <c r="G31" t="n">
-        <v>1.440767087985044</v>
+        <v>1.494836555978759</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.926714397097756</v>
       </c>
       <c r="E32" t="n">
-        <v>4.934661699416365</v>
+        <v>4.633012010475725</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.101919367791447</v>
+        <v>-3.516828581761156</v>
       </c>
       <c r="G32" t="n">
-        <v>1.410909031175519</v>
+        <v>1.390405937705956</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.822313483089418</v>
       </c>
       <c r="E33" t="n">
-        <v>4.600406870938127</v>
+        <v>4.272392750824375</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.159605970358617</v>
+        <v>-3.337325572030481</v>
       </c>
       <c r="G33" t="n">
-        <v>1.234232088900556</v>
+        <v>1.252385767923285</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.70598689667917</v>
       </c>
       <c r="E34" t="n">
-        <v>4.122446192128572</v>
+        <v>3.875658868061419</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.794090267514333</v>
+        <v>-3.12947070460151</v>
       </c>
       <c r="G34" t="n">
-        <v>1.061901441368099</v>
+        <v>1.1316233036892</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.580088468155878</v>
       </c>
       <c r="E35" t="n">
-        <v>3.890755624652287</v>
+        <v>3.550379632262206</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.758677053180988</v>
+        <v>-2.974501449132687</v>
       </c>
       <c r="G35" t="n">
-        <v>1.020952586972588</v>
+        <v>1.046665012942256</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.447290281879653</v>
       </c>
       <c r="E36" t="n">
-        <v>3.593209482024807</v>
+        <v>3.216477337935128</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.528994954493234</v>
+        <v>-2.856246063840374</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9754647029007176</v>
+        <v>0.9690416282538838</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.312394848762632</v>
       </c>
       <c r="E37" t="n">
-        <v>3.185387241358572</v>
+        <v>2.896900860463508</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.551678514382171</v>
+        <v>-2.704181250634225</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9537210307746493</v>
+        <v>0.8400800003622745</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.177883911583167</v>
       </c>
       <c r="E38" t="n">
-        <v>3.002073142279237</v>
+        <v>2.557249453837403</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.407332247340269</v>
+        <v>-2.592105886599063</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9580722048825699</v>
+        <v>0.7671243386130555</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.045324366787902</v>
       </c>
       <c r="E39" t="n">
-        <v>2.880692828399605</v>
+        <v>2.267499317300117</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.327291137089268</v>
+        <v>-2.436084517962849</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7761218884364428</v>
+        <v>0.6797037980940795</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9181505520151291</v>
       </c>
       <c r="E40" t="n">
-        <v>2.625676454561768</v>
+        <v>2.01727691998152</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.314267500878666</v>
+        <v>-2.343299115171197</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7210869160114354</v>
+        <v>0.5980268805880402</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7969638204017443</v>
       </c>
       <c r="E41" t="n">
-        <v>2.283258447745934</v>
+        <v>1.715271037365658</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.078458139072302</v>
+        <v>-2.227649006049614</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6906988381338168</v>
+        <v>0.5166561432617283</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6808654388372603</v>
       </c>
       <c r="E42" t="n">
-        <v>1.889981595378786</v>
+        <v>1.478341251276108</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.146499669928962</v>
+        <v>-2.144377755894555</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6239552184772769</v>
+        <v>0.4616693545701838</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5711130018099076</v>
       </c>
       <c r="E43" t="n">
-        <v>1.838046239833012</v>
+        <v>1.288735210495439</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.819933501501809</v>
+        <v>-2.063271114221275</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5556880169702202</v>
+        <v>0.4113515086591458</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.467851745660877</v>
       </c>
       <c r="E44" t="n">
-        <v>1.402787327443942</v>
+        <v>1.08431419647656</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.804686094503785</v>
+        <v>-1.972282537743323</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6913630417507954</v>
+        <v>0.3720835956487523</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3712912520835256</v>
       </c>
       <c r="E45" t="n">
-        <v>1.253458618393685</v>
+        <v>0.9036123876557359</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.804297575032696</v>
+        <v>-1.875754661679145</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5559667507194941</v>
+        <v>0.307892494024403</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2817787366559804</v>
       </c>
       <c r="E46" t="n">
-        <v>1.136472173069347</v>
+        <v>0.7134269222321564</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.756058948708692</v>
+        <v>-1.795782472464617</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4416578571660801</v>
+        <v>0.2447132508027786</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2007344475472423</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8934157337818619</v>
+        <v>0.5494399895576131</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.659064483326802</v>
+        <v>-1.746464286542769</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4227088415808714</v>
+        <v>0.1958531153091685</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1275839630448534</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8957187942572625</v>
+        <v>0.4025692608346505</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.595728490491254</v>
+        <v>-1.638314371983157</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4372194644013844</v>
+        <v>0.1492454168747889</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.06248594036236899</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8248496711431986</v>
+        <v>0.2462472013048</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.595038670205852</v>
+        <v>-1.548697507107211</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3814995510563889</v>
+        <v>0.0842138445578807</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.005563289661043422</v>
       </c>
       <c r="E50" t="n">
-        <v>0.760124279006018</v>
+        <v>0.1438866538088804</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.551121331876608</v>
+        <v>-1.476767731936282</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3090001099733775</v>
+        <v>0.03392405499797308</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.04394758513277973</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5532123489432998</v>
+        <v>-0.001623341884257232</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.454783141142898</v>
+        <v>-1.421350339246954</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2461563231239646</v>
+        <v>0.002363709579644822</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.08776082864321041</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5415890906065122</v>
+        <v>-0.0674429317155239</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.450567979345893</v>
+        <v>-1.361622637135047</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1850575193307279</v>
+        <v>-0.01217313982996839</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1270924309860056</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3252008229891594</v>
+        <v>-0.1419148562671385</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.441988225186078</v>
+        <v>-1.319918700941721</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1683158066746704</v>
+        <v>-0.03735005544545147</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1631235437359788</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1235531182874537</v>
+        <v>-0.2550978362512756</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.454143944273667</v>
+        <v>-1.281709610226162</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1405949119164712</v>
+        <v>-0.08966112212810216</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1969424169770528</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2004555767359093</v>
+        <v>-0.3299088766991622</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.46526157836943</v>
+        <v>-1.261933542203284</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1594591485276119</v>
+        <v>-0.09769743696493458</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2290636676147607</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1748736737910655</v>
+        <v>-0.4038349222450873</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.418929564080941</v>
+        <v>-1.255576338989538</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06820647639662793</v>
+        <v>-0.143806830206411</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.260739114234981</v>
       </c>
       <c r="E57" t="n">
-        <v>0.05393494248140011</v>
+        <v>-0.4580416223910709</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.40363458327013</v>
+        <v>-1.277433456361482</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1234622401066182</v>
+        <v>-0.1594421467548475</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2923199814475001</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.02729856269264348</v>
+        <v>-0.4953901150317383</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.335492415501806</v>
+        <v>-1.25411313928602</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04521307680390289</v>
+        <v>-0.1933946010673816</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3253704500100772</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.003278056680274713</v>
+        <v>-0.5432444913293909</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.45596638725579</v>
+        <v>-1.2575079577728</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08211815711257438</v>
+        <v>-0.2174346245414063</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3608621107855928</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2009033345188269</v>
+        <v>-0.5792920231665546</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.450990044454202</v>
+        <v>-1.281080172087758</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03979637127370338</v>
+        <v>-0.2218077557936899</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3991083723983437</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.2141282445527551</v>
+        <v>-0.598413646303283</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.402963670525707</v>
+        <v>-1.344591212157534</v>
       </c>
       <c r="G61" t="n">
-        <v>0.07211423817255273</v>
+        <v>-0.2624229835790198</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4402191630075489</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1958659996495647</v>
+        <v>-0.5917667307680826</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.262994194260148</v>
+        <v>-1.366916138688543</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.007297433940044415</v>
+        <v>-0.2787950843049679</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4845618208940084</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.2173461860432779</v>
+        <v>-0.6101924344126415</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.337415495395593</v>
+        <v>-1.405352119895852</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04089971777794062</v>
+        <v>-0.2717334227095789</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5308998457744841</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.3524405663395889</v>
+        <v>-0.609304999827973</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.433629872231922</v>
+        <v>-1.472605023317477</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01230602653131492</v>
+        <v>-0.2969591319792019</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5777991915628786</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2535699849560217</v>
+        <v>-0.6111884348777711</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.545774767224234</v>
+        <v>-1.529690549057711</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04278010322435488</v>
+        <v>-0.316935863904731</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6239329678611886</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3201092811858511</v>
+        <v>-0.5738088362825896</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.650010820801154</v>
+        <v>-1.612375055521738</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1169703204294965</v>
+        <v>-0.3267915721203029</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6682121270247338</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3201977196839796</v>
+        <v>-0.5378838985014522</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.612855673015016</v>
+        <v>-1.71213002188659</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.12801293428202</v>
+        <v>-0.3575090071633653</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7088825165410917</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3975643277674405</v>
+        <v>-0.4999163363738856</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.665682122669519</v>
+        <v>-1.775166543669856</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.145542664452436</v>
+        <v>-0.3558073284752382</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.745909719999993</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.2375949425906366</v>
+        <v>-0.5018619833327119</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.828096679839406</v>
+        <v>-1.846610821982093</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1199302654737548</v>
+        <v>-0.3458461039825889</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7781526430125539</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.2213070109180797</v>
+        <v>-0.5167135518115271</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.678693560466585</v>
+        <v>-1.877597232043601</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.09521140028650948</v>
+        <v>-0.3746313103217135</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8041126527154254</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3552016772432274</v>
+        <v>-0.5096915350601268</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.883712296748677</v>
+        <v>-1.94535758946828</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1784905794103661</v>
+        <v>-0.3795503205796866</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.822735427484886</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2191777778355523</v>
+        <v>-0.5376082143555621</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.965126338443038</v>
+        <v>-2.009996372869363</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2765371579596466</v>
+        <v>-0.4096322182775776</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8337804359858598</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.04611156596693733</v>
+        <v>-0.4700314430545843</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.936543625768594</v>
+        <v>-2.045952416605014</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3326968241125776</v>
+        <v>-0.4457962449640002</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8363944892451572</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.05680408535100753</v>
+        <v>-0.4479401161427696</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.103668600325006</v>
+        <v>-2.115094854283204</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3148859205101808</v>
+        <v>-0.4690659386232921</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8301904121505143</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.102339543235664</v>
+        <v>-0.38289756525368</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.084857426812742</v>
+        <v>-2.120505460606636</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2855633740548411</v>
+        <v>-0.4578934116666212</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.815573063724723</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1002944032003432</v>
+        <v>-0.3178739219055695</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.0912798915389</v>
+        <v>-2.133654740476647</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.268259314534822</v>
+        <v>-0.4519637628472766</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7923007106643354</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1104855677881265</v>
+        <v>-0.2302917524072554</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.955390174680109</v>
+        <v>-2.108030753005108</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2630938963234427</v>
+        <v>-0.4577378818940504</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7601056145693568</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2859896326017035</v>
+        <v>-0.1362163673842814</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.993602924919728</v>
+        <v>-2.12540556332363</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2400547526799615</v>
+        <v>-0.4363046593924469</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7199031622170493</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4999327282259732</v>
+        <v>0.04401031322935572</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.954642411930416</v>
+        <v>-2.088745671127011</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2667479310978403</v>
+        <v>-0.4138492098366137</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6721478318033127</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5111540488367841</v>
+        <v>0.1745052817023097</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.02651119503367</v>
+        <v>-2.071170196905839</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2428744159685678</v>
+        <v>-0.4060355160467943</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6166317259333444</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6837536713876867</v>
+        <v>0.3671560465013048</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.807960758617245</v>
+        <v>-2.003526944251096</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2053630745072088</v>
+        <v>-0.3814727905527965</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5542178013812153</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8718916330994229</v>
+        <v>0.5378765034471467</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.949862463586741</v>
+        <v>-1.977490040481398</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1188647340514759</v>
+        <v>-0.3274759031196142</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4851334506466842</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9823427783724055</v>
+        <v>0.7576858161403793</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.97053328524241</v>
+        <v>-1.881154289430396</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1306435221608344</v>
+        <v>-0.319209038266971</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4105025946248465</v>
       </c>
       <c r="E84" t="n">
-        <v>1.122741638794394</v>
+        <v>1.005875957764053</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.712959514006968</v>
+        <v>-1.790041899055064</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1754470752333933</v>
+        <v>-0.2547947056749318</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3311709910982565</v>
       </c>
       <c r="E85" t="n">
-        <v>1.285946653161347</v>
+        <v>1.179200166078932</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.564634734390638</v>
+        <v>-1.685786937937165</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2357816484186646</v>
+        <v>-0.1992083649581441</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2494633571071205</v>
       </c>
       <c r="E86" t="n">
-        <v>1.388781109023099</v>
+        <v>1.399254666884217</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.265116108294555</v>
+        <v>-1.534675430748773</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2019694758617825</v>
+        <v>-0.2048062169293378</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1675166140057839</v>
       </c>
       <c r="E87" t="n">
-        <v>1.563876526983255</v>
+        <v>1.5735047347864</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.20388007234905</v>
+        <v>-1.3945174889941</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1500078937269085</v>
+        <v>-0.1447491576519868</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.08774707565525057</v>
       </c>
       <c r="E88" t="n">
-        <v>1.674622263943107</v>
+        <v>1.776998669376622</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.129567947014743</v>
+        <v>-1.280071363288417</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.0006322207845416382</v>
+        <v>-0.1326440619805681</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.01386884765758809</v>
       </c>
       <c r="E89" t="n">
-        <v>1.585212772097256</v>
+        <v>1.891003212512339</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8867780430629973</v>
+        <v>-1.124010349808215</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.09320415133933163</v>
+        <v>-0.09867209020637797</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.05151631515138128</v>
       </c>
       <c r="E90" t="n">
-        <v>1.631397185581972</v>
+        <v>2.026689825785772</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.968432393503997</v>
+        <v>-1.023072137330472</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04065704535477944</v>
+        <v>-0.07037055096391458</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1057679231972354</v>
       </c>
       <c r="E91" t="n">
-        <v>1.585506143942772</v>
+        <v>2.089350636432161</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5490271492656392</v>
+        <v>-0.8281603965827717</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08262385735978307</v>
+        <v>-0.06207258015675726</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1457513452402708</v>
       </c>
       <c r="E92" t="n">
-        <v>1.503500479191965</v>
+        <v>2.129063181615904</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5250121325393612</v>
+        <v>-0.6941120302470836</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1386060365957803</v>
+        <v>-0.01557771704757605</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1694517505551843</v>
       </c>
       <c r="E93" t="n">
-        <v>1.514643729956152</v>
+        <v>2.134007198621624</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2531241329413189</v>
+        <v>-0.502157184940258</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.09419588235972397</v>
+        <v>-0.005991593771126823</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1762166461144279</v>
       </c>
       <c r="E94" t="n">
-        <v>1.53958521619041</v>
+        <v>2.094975934833808</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.08887188477239018</v>
+        <v>-0.3839838339789682</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1737685735309826</v>
+        <v>-0.01661458219804775</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1663995607869166</v>
       </c>
       <c r="E95" t="n">
-        <v>1.499076724523511</v>
+        <v>2.03014868594361</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07261627889570094</v>
+        <v>-0.2466168892410939</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06197438292780082</v>
+        <v>-0.01320878513908659</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1418528707035059</v>
       </c>
       <c r="E96" t="n">
-        <v>1.387167258912424</v>
+        <v>1.917055974219632</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1217093280816443</v>
+        <v>-0.1374654849302615</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1594939900123711</v>
+        <v>-0.004583896849192306</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1082825368085422</v>
       </c>
       <c r="E97" t="n">
-        <v>1.276746609673279</v>
+        <v>1.763599322029144</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2291255080671285</v>
+        <v>-0.02521690342290236</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05912666328806414</v>
+        <v>-0.02268268301101418</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.07014113604731992</v>
       </c>
       <c r="E98" t="n">
-        <v>1.11714195706117</v>
+        <v>1.576170088143789</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3788683532568977</v>
+        <v>0.0238524348628324</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.07635387280281303</v>
+        <v>-0.03241335748785269</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.03214281086651792</v>
       </c>
       <c r="E99" t="n">
-        <v>1.042783477755431</v>
+        <v>1.376819954631393</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4545503604311805</v>
+        <v>0.06353936337815178</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0996674807508308</v>
+        <v>-0.04306501218658078</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.005819461149579408</v>
       </c>
       <c r="E100" t="n">
-        <v>1.01497841394384</v>
+        <v>1.191993862194399</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3621424985384357</v>
+        <v>0.1089260006176818</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1371824817362503</v>
+        <v>-0.0583685318868663</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.04031333941264843</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8820401032398338</v>
+        <v>1.046302720060267</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3994214602219538</v>
+        <v>0.1474418814336449</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.296050960091524</v>
+        <v>-0.08643464174810493</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.07668060968196538</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8883729096265089</v>
+        <v>0.9040564099084085</v>
       </c>
       <c r="F102" t="n">
-        <v>0.429740007142423</v>
+        <v>0.1201009672570597</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1845025675210717</v>
+        <v>-0.09673864166108663</v>
       </c>
     </row>
   </sheetData>
